--- a/doc/协议/Modbus协议.xlsx
+++ b/doc/协议/Modbus协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">通讯协议版本</t>
   </si>
   <si>
+    <t xml:space="preserve">标准/定制</t>
+  </si>
+  <si>
     <t xml:space="preserve">设备规格A\B\C\D</t>
   </si>
   <si>
@@ -91,13 +94,13 @@
     <t xml:space="preserve">总电能</t>
   </si>
   <si>
-    <t xml:space="preserve">11~12</t>
+    <t xml:space="preserve">12~13</t>
   </si>
   <si>
     <t xml:space="preserve">设备时间</t>
   </si>
   <si>
-    <t xml:space="preserve">13~14</t>
+    <t xml:space="preserve">14~15</t>
   </si>
   <si>
     <t xml:space="preserve">三、相参数：03H功能码读</t>
@@ -811,7 +814,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,10 +849,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -945,13 +944,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J302"/>
+  <dimension ref="A1:J303"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.74"/>
@@ -1004,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>14</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>21</v>
       </c>
@@ -1084,24 +1083,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>23</v>
+      <c r="F15" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="5"/>
@@ -1119,46 +1123,29 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>101</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="I25" s="8" t="n">
         <v>2</v>
@@ -1166,19 +1153,19 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="I26" s="8" t="n">
         <v>2</v>
@@ -1186,10 +1173,22 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="6" t="n">
-        <v>104</v>
+      <c r="I27" s="8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1197,23 +1196,23 @@
         <v>38</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>40</v>
+      <c r="F29" s="6" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>108</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1221,66 +1220,63 @@
         <v>42</v>
       </c>
       <c r="F31" s="6" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="6" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="9" t="n">
+    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="6" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="5" t="n">
-        <v>119</v>
+      <c r="A35" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="9" t="n">
+      <c r="F36" s="5" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="6" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="5" t="n">
+      <c r="A38" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="5" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B41" s="0" t="s">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="6" t="n">
-        <v>131</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1288,29 +1284,32 @@
         <v>50</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>35</v>
+      <c r="E43" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="E44" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="F44" s="6" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1318,23 +1317,23 @@
         <v>53</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>55</v>
+      <c r="F46" s="6" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="F47" s="6" t="n">
-        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1342,64 +1341,64 @@
         <v>57</v>
       </c>
       <c r="F48" s="6" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="6" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="9" t="n">
+    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="6" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="5" t="n">
+      <c r="A52" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="5" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="6" t="n">
-        <v>201</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>35</v>
+      <c r="E56" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="E57" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="F57" s="6" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1407,7 +1406,7 @@
         <v>64</v>
       </c>
       <c r="F58" s="6" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -1415,768 +1414,768 @@
         <v>65</v>
       </c>
       <c r="F59" s="6" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="6" t="n">
         <v>205</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="9" t="n">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="6" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="5" t="n">
+      <c r="A63" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="5" t="n">
         <v>448</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A67" s="10"/>
-      <c r="B67" s="0" t="s">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="6" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A68" s="9"/>
+      <c r="B68" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="6" t="n">
+      <c r="C68" s="10"/>
+      <c r="D68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" s="6" t="n">
         <v>501</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="G68" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B69" s="0" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A70" s="9"/>
+      <c r="B70" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" s="6" t="n">
         <v>548</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="G70" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A72" s="9"/>
+      <c r="B72" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A74" s="9"/>
+      <c r="B74" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A75" s="9"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A76" s="9"/>
+      <c r="B76" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A71" s="10"/>
-      <c r="B71" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="6" t="n">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A73" s="10"/>
-      <c r="B73" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" s="6" t="n">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A74" s="10"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A75" s="10"/>
-      <c r="B75" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="6" t="n">
+      <c r="F76" s="6" t="n">
         <v>601</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A76" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B77" s="0" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A78" s="9"/>
+      <c r="B78" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="6" t="n">
         <v>648</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-    </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A79" s="10"/>
-      <c r="B79" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" s="6" t="n">
+      <c r="A79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A80" s="9"/>
+      <c r="B80" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F80" s="6" t="n">
         <v>651</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A81" s="10"/>
+      <c r="A81" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B81" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A82" s="9"/>
+      <c r="B82" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" s="6" t="n">
         <v>698</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A83" s="10"/>
-      <c r="B83" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="6" t="n">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A84" s="9"/>
+      <c r="B84" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="6" t="n">
         <v>701</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A85" s="10"/>
+      <c r="A85" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B85" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F85" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A86" s="9"/>
+      <c r="B86" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="6" t="n">
         <v>796</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A87" s="10"/>
-      <c r="B87" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F87" s="6" t="n">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A88" s="9"/>
+      <c r="B88" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F88" s="6" t="n">
         <v>801</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A88" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A89" s="10"/>
+      <c r="A89" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B89" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F89" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A90" s="9"/>
+      <c r="B90" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="6" t="n">
         <v>848</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A91" s="10"/>
-      <c r="B91" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F91" s="6" t="n">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A92" s="9"/>
+      <c r="B92" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="6" t="n">
         <v>851</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A92" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A93" s="10"/>
+      <c r="A93" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B93" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A94" s="9"/>
+      <c r="B94" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" s="6" t="n">
         <v>898</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B97" s="0" t="s">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F97" s="6" t="n">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" s="6" t="n">
         <v>1001</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A98" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F98" s="6"/>
-    </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F99" s="6" t="n">
+      <c r="A99" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="6" t="n">
         <v>1006</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F100" s="6"/>
-    </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A101" s="10"/>
-      <c r="B101" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F101" s="6" t="n">
-        <v>1011</v>
-      </c>
+      <c r="F101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A102" s="10"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="0" t="s">
         <v>88</v>
       </c>
       <c r="F102" s="6" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A103" s="10"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="0" t="s">
         <v>89</v>
       </c>
       <c r="F103" s="6" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A104" s="9"/>
+      <c r="B104" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" s="6" t="n">
         <v>1013</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A104" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F104" s="6"/>
-    </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A105" s="10"/>
-      <c r="B105" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F105" s="6" t="n">
+      <c r="A105" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A106" s="9"/>
+      <c r="B106" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="6" t="n">
         <v>1019</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="10"/>
-      <c r="F106" s="6"/>
-    </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A107" s="10"/>
-      <c r="B107" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="6" t="n">
-        <v>1021</v>
-      </c>
+      <c r="A107" s="9"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A108" s="10"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="0" t="s">
         <v>92</v>
       </c>
       <c r="F108" s="6" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A109" s="10"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="0" t="s">
         <v>93</v>
       </c>
       <c r="F109" s="6" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A110" s="9"/>
+      <c r="B110" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" s="6" t="n">
         <v>1023</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A110" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F110" s="6"/>
-    </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="10"/>
-      <c r="B111" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F111" s="6" t="n">
+      <c r="A111" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A112" s="9"/>
+      <c r="B112" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F112" s="6" t="n">
         <v>1138</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="10"/>
-      <c r="F112" s="6"/>
-    </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A113" s="10"/>
-      <c r="B113" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F113" s="6" t="n">
+      <c r="A113" s="9"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A114" s="9"/>
+      <c r="B114" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F114" s="6" t="n">
         <v>1201</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A114" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F114" s="6"/>
-    </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="10"/>
+      <c r="A115" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B115" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F115" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A116" s="9"/>
+      <c r="B116" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" s="6" t="n">
         <v>1248</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="10"/>
-      <c r="F116" s="6"/>
-    </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A117" s="10"/>
-      <c r="B117" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" s="6" t="n">
+      <c r="A117" s="9"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A118" s="9"/>
+      <c r="B118" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" s="6" t="n">
         <v>1251</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A118" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="6"/>
-    </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A119" s="10"/>
+      <c r="A119" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B119" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F119" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A120" s="9"/>
+      <c r="B120" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F120" s="6" t="n">
         <v>1298</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A121" s="10"/>
-      <c r="B121" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F121" s="6" t="n">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A122" s="9"/>
+      <c r="B122" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F122" s="6" t="n">
         <v>1301</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A122" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F122" s="6"/>
-    </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A123" s="10"/>
+      <c r="A123" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B123" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F123" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="9"/>
+      <c r="B124" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" s="6" t="n">
         <v>1348</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A124" s="10"/>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="10"/>
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A125" s="9"/>
       <c r="F125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>101</v>
-      </c>
+      <c r="A126" s="9"/>
       <c r="F126" s="6"/>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A127" s="10"/>
-      <c r="B127" s="0" t="s">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F127" s="6" t="n">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A128" s="9"/>
+      <c r="B128" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F128" s="6" t="n">
         <v>1601</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F128" s="6"/>
-    </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="10"/>
+      <c r="A129" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B129" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F129" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A130" s="9"/>
+      <c r="B130" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" s="6" t="n">
         <v>1608</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="10"/>
-      <c r="F130" s="6"/>
-    </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A131" s="10"/>
-      <c r="B131" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F131" s="6" t="n">
+      <c r="A131" s="9"/>
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A132" s="9"/>
+      <c r="B132" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F132" s="6" t="n">
         <v>1611</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A132" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F132" s="6"/>
-    </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="10"/>
+      <c r="A133" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B133" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F133" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A134" s="9"/>
+      <c r="B134" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134" s="6" t="n">
         <v>1618</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="10"/>
-      <c r="F134" s="6"/>
-    </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A135" s="10"/>
-      <c r="B135" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F135" s="6" t="n">
+      <c r="A135" s="9"/>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A136" s="9"/>
+      <c r="B136" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F136" s="6" t="n">
         <v>1621</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A136" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F136" s="6"/>
-    </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="10"/>
+      <c r="A137" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B137" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F137" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A138" s="9"/>
+      <c r="B138" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F138" s="6" t="n">
         <v>1628</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A138" s="10"/>
-      <c r="F138" s="6"/>
-    </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A139" s="10"/>
-      <c r="B139" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F139" s="6" t="n">
+      <c r="A139" s="9"/>
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A140" s="9"/>
+      <c r="B140" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F140" s="6" t="n">
         <v>1631</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A140" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F140" s="6"/>
-    </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A141" s="10"/>
+      <c r="A141" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B141" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F141" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A142" s="9"/>
+      <c r="B142" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F142" s="6" t="n">
         <v>1646</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A142" s="10"/>
-      <c r="F142" s="6"/>
-    </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A143" s="10"/>
-      <c r="B143" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F143" s="6" t="n">
+      <c r="A143" s="9"/>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A144" s="9"/>
+      <c r="B144" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144" s="6" t="n">
         <v>1651</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A144" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F144" s="6"/>
-    </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A145" s="10"/>
+      <c r="A145" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B145" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F145" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A146" s="9"/>
+      <c r="B146" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F146" s="6" t="n">
         <v>1658</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="10"/>
-      <c r="F146" s="6"/>
-    </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10"/>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A147" s="9"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B150" s="0" t="s">
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9"/>
+      <c r="F148" s="6"/>
+    </row>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="F150" s="13" t="n">
-        <v>1771</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B151" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F151" s="5" t="n">
+      <c r="F151" s="12" t="n">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F152" s="5" t="n">
         <v>1772</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A152" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A153" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B153" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F153" s="13" t="n">
-        <v>1777</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B154" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="F154" s="5" t="n">
+      <c r="F154" s="12" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F155" s="5" t="n">
         <v>1778</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F155" s="5"/>
-    </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B156" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F156" s="5" t="n">
-        <v>1781</v>
-      </c>
+      <c r="F156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B157" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F157" s="5" t="n">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2184,15 +2183,15 @@
         <v>118</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2200,15 +2199,15 @@
         <v>119</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2216,987 +2215,995 @@
         <v>120</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F163" s="5" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F164" s="5" t="n">
         <v>1788</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F164" s="5"/>
-    </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B165" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F165" s="13" t="n">
-        <v>1791</v>
-      </c>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B166" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="F166" s="5" t="n">
-        <v>1792</v>
+      <c r="F166" s="12" t="n">
+        <v>1791</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B167" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F167" s="13" t="n">
-        <v>1793</v>
+      <c r="F167" s="5" t="n">
+        <v>1792</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B168" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F168" s="5" t="n">
+      <c r="F168" s="12" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B169" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F169" s="5" t="n">
         <v>1794</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="14" t="n">
+      <c r="A171" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B171" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C171" s="16" t="s">
+      <c r="B172" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D171" s="17" t="n">
+      <c r="C172" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D172" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E171" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F171" s="17" t="n">
+      <c r="E172" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F172" s="16" t="n">
         <v>6001</v>
       </c>
-      <c r="G171" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H171" s="18" t="s">
+      <c r="G172" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="I171" s="16" t="n">
+      <c r="H172" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I172" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="n">
+    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B173" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D173" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F173" s="16" t="n">
+        <v>6002</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H173" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I173" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B174" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="22"/>
+      <c r="D174" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F174" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G174" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H174" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C172" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D172" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F172" s="17" t="n">
-        <v>6002</v>
-      </c>
-      <c r="G172" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H172" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I172" s="16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="B173" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C173" s="23"/>
-      <c r="D173" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E173" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F173" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G173" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H173" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="I173" s="28" t="n">
+      <c r="I174" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="J173" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="10"/>
-      <c r="F175" s="5"/>
+      <c r="J174" s="27" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B177" s="0" t="s">
+      <c r="A176" s="9"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="F177" s="13" t="n">
-        <v>6101</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B178" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F178" s="5" t="n">
-        <v>6102</v>
+      <c r="F178" s="12" t="n">
+        <v>6101</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B179" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="F179" s="13" t="n">
-        <v>6103</v>
+      <c r="F179" s="5" t="n">
+        <v>6102</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B180" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="F180" s="5" t="n">
-        <v>6104</v>
+      <c r="F180" s="12" t="n">
+        <v>6103</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B181" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F181" s="13" t="n">
-        <v>6105</v>
+      <c r="F181" s="5" t="n">
+        <v>6104</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B182" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F182" s="5" t="n">
+      <c r="F182" s="12" t="n">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F183" s="5" t="n">
         <v>6106</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A183" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B184" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F184" s="13" t="n">
-        <v>6110</v>
+      <c r="A184" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B185" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="F185" s="5" t="n">
+      <c r="F185" s="12" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F186" s="5" t="n">
         <v>6111</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A186" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B187" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F187" s="13" t="n">
+      <c r="A187" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F188" s="12" t="n">
         <v>6115</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B189" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F189" s="13" t="n">
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B190" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F190" s="12" t="n">
         <v>6116</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A190" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B191" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="F191" s="13" t="n">
+      <c r="A191" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F192" s="12" t="n">
         <v>6130</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B193" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F193" s="13" t="n">
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B194" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F194" s="12" t="n">
         <v>6131</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A194" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B195" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F195" s="13" t="n">
+      <c r="A195" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B196" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F196" s="12" t="n">
         <v>6145</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F196" s="13"/>
-    </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B198" s="0" t="s">
+      <c r="F197" s="12"/>
+    </row>
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="F198" s="13" t="n">
-        <v>6201</v>
-      </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A199" s="10"/>
       <c r="B199" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F199" s="5" t="n">
-        <v>6202</v>
+      <c r="F199" s="12" t="n">
+        <v>6201</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A200" s="9"/>
       <c r="B200" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="F200" s="13" t="n">
-        <v>6203</v>
+      <c r="F200" s="5" t="n">
+        <v>6202</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B201" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F201" s="5" t="n">
-        <v>6204</v>
+      <c r="F201" s="12" t="n">
+        <v>6203</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B202" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="F202" s="13" t="n">
+      <c r="F202" s="5" t="n">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B203" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F203" s="12" t="n">
         <v>6205</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A203" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B204" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="F204" s="13" t="n">
+      <c r="A204" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B205" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F205" s="12" t="n">
         <v>6290</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A207" s="10"/>
-      <c r="B207" s="0" t="s">
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F207" s="5" t="n">
+    </row>
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A208" s="9"/>
+      <c r="B208" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F208" s="5" t="n">
         <v>6301</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A208" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A209" s="10"/>
+      <c r="A209" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B209" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F209" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A210" s="9"/>
+      <c r="B210" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F210" s="5" t="n">
         <v>6348</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A211" s="10"/>
-      <c r="B211" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F211" s="5" t="n">
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A212" s="9"/>
+      <c r="B212" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F212" s="5" t="n">
         <v>6351</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A212" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A213" s="10"/>
+      <c r="A213" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B213" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F213" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A214" s="9"/>
+      <c r="B214" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F214" s="5" t="n">
         <v>6398</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A215" s="10"/>
-      <c r="B215" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F215" s="5" t="n">
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A216" s="9"/>
+      <c r="B216" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F216" s="5" t="n">
         <v>6401</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A216" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A217" s="10"/>
+      <c r="A217" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B217" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F217" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A218" s="9"/>
+      <c r="B218" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F218" s="5" t="n">
         <v>6448</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A219" s="10"/>
-      <c r="B219" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="F219" s="5" t="n">
+    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A220" s="9"/>
+      <c r="B220" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F220" s="5" t="n">
         <v>6451</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A220" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A221" s="10"/>
+      <c r="A221" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B221" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F221" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A222" s="9"/>
+      <c r="B222" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F222" s="5" t="n">
         <v>6498</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A223" s="10"/>
-      <c r="B223" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F223" s="5" t="n">
+    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A224" s="9"/>
+      <c r="B224" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F224" s="5" t="n">
         <v>6501</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A224" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A225" s="10"/>
+      <c r="A225" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B225" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F225" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A226" s="9"/>
+      <c r="B226" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F226" s="5" t="n">
         <v>6548</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A226" s="10"/>
-      <c r="F226" s="5"/>
-    </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A227" s="10"/>
-      <c r="B227" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="F227" s="5" t="n">
+      <c r="A227" s="9"/>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A228" s="9"/>
+      <c r="B228" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F228" s="5" t="n">
         <v>6601</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A228" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A229" s="10"/>
+      <c r="A229" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B229" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F229" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A230" s="9"/>
+      <c r="B230" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F230" s="5" t="n">
         <v>6648</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A231" s="10"/>
-      <c r="B231" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="F231" s="5" t="n">
+    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A232" s="9"/>
+      <c r="B232" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F232" s="5" t="n">
         <v>6651</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A232" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A233" s="10"/>
+      <c r="A233" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B233" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F233" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A234" s="9"/>
+      <c r="B234" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F234" s="5" t="n">
         <v>6698</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A235" s="10"/>
-      <c r="B235" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F235" s="5" t="n">
+    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A236" s="9"/>
+      <c r="B236" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F236" s="5" t="n">
         <v>6701</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A236" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A237" s="10"/>
+      <c r="A237" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B237" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F237" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A238" s="9"/>
+      <c r="B238" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F238" s="5" t="n">
         <v>6748</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A239" s="10"/>
-      <c r="B239" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F239" s="5" t="n">
+    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A240" s="9"/>
+      <c r="B240" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F240" s="5" t="n">
         <v>6751</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A240" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A241" s="10"/>
+      <c r="A241" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B241" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="F241" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A242" s="9"/>
+      <c r="B242" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F242" s="5" t="n">
         <v>6798</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A243" s="10"/>
-      <c r="B243" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="F243" s="5" t="n">
+    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A244" s="9"/>
+      <c r="B244" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F244" s="5" t="n">
         <v>6801</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A244" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A245" s="10"/>
+      <c r="A245" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B245" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="F245" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A246" s="9"/>
+      <c r="B246" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F246" s="5" t="n">
         <v>6848</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A247" s="10"/>
-      <c r="B247" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F247" s="5" t="n">
+    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A248" s="9"/>
+      <c r="B248" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F248" s="5" t="n">
         <v>6851</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A248" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A249" s="10"/>
+      <c r="A249" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B249" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F249" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A250" s="9"/>
+      <c r="B250" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F250" s="5" t="n">
         <v>6898</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F251" s="5"/>
-    </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A252" s="10"/>
-      <c r="B252" s="0" t="s">
+    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F252" s="5" t="n">
+      <c r="F252" s="5"/>
+    </row>
+    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A253" s="9"/>
+      <c r="B253" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F253" s="5" t="n">
         <v>6901</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A253" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A254" s="10"/>
+      <c r="A254" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B254" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F254" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A255" s="9"/>
+      <c r="B255" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F255" s="5" t="n">
         <v>6948</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A255" s="10"/>
-      <c r="F255" s="5"/>
-    </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A256" s="10"/>
-      <c r="B256" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="F256" s="5" t="n">
+      <c r="A256" s="9"/>
+      <c r="F256" s="5"/>
+    </row>
+    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A257" s="9"/>
+      <c r="B257" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F257" s="5" t="n">
         <v>6951</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A257" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A258" s="10"/>
+      <c r="A258" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B258" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F258" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A259" s="9"/>
+      <c r="B259" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="F259" s="5" t="n">
         <v>6958</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B262" s="0" t="s">
+    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="F262" s="13" t="n">
-        <v>7001</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B263" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F263" s="5" t="n">
-        <v>7002</v>
+      <c r="F263" s="12" t="n">
+        <v>7001</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B264" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="F264" s="13" t="n">
-        <v>7003</v>
+      <c r="F264" s="5" t="n">
+        <v>7002</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B265" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="F265" s="5" t="n">
-        <v>7004</v>
+      <c r="F265" s="12" t="n">
+        <v>7003</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B266" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="F266" s="13" t="n">
+      <c r="F266" s="5" t="n">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B267" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F267" s="12" t="n">
         <v>7005</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B268" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="F268" s="13" t="n">
-        <v>7006</v>
-      </c>
-    </row>
+    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B269" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="F269" s="5" t="n">
-        <v>7007</v>
+      <c r="F269" s="12" t="n">
+        <v>7006</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B270" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="F270" s="13" t="n">
-        <v>7008</v>
+      <c r="F270" s="5" t="n">
+        <v>7007</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B271" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="F271" s="5" t="n">
-        <v>7009</v>
+      <c r="F271" s="12" t="n">
+        <v>7008</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B272" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="F272" s="13" t="n">
+      <c r="F272" s="5" t="n">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B273" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F273" s="12" t="n">
         <v>7010</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A274" s="10"/>
-      <c r="B274" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F274" s="5" t="n">
+    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A275" s="9"/>
+      <c r="B275" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F275" s="5" t="n">
         <v>7011</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A275" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A276" s="10"/>
+      <c r="A276" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B276" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F276" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A277" s="9"/>
+      <c r="B277" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F277" s="5" t="n">
         <v>7030</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A280" s="10"/>
-      <c r="B280" s="0" t="s">
+    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F280" s="5" t="n">
+    </row>
+    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A281" s="9"/>
+      <c r="B281" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F281" s="5" t="n">
         <v>7101</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A281" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A282" s="10"/>
+      <c r="A282" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B282" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="F282" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A283" s="9"/>
+      <c r="B283" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F283" s="5" t="n">
         <v>7108</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A284" s="10"/>
-      <c r="B284" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F284" s="5" t="n">
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A285" s="9"/>
+      <c r="B285" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F285" s="5" t="n">
         <v>7111</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A285" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A286" s="10"/>
+      <c r="A286" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B286" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="F286" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A287" s="9"/>
+      <c r="B287" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F287" s="5" t="n">
         <v>7118</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A288" s="10"/>
-      <c r="B288" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F288" s="5" t="n">
+    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A289" s="9"/>
+      <c r="B289" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F289" s="5" t="n">
         <v>7121</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A289" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A290" s="10"/>
+      <c r="A290" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B290" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="F290" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A291" s="9"/>
+      <c r="B291" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F291" s="5" t="n">
         <v>7128</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A292" s="10"/>
-      <c r="B292" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="F292" s="5" t="n">
+    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A293" s="9"/>
+      <c r="B293" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F293" s="5" t="n">
         <v>7131</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A293" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A294" s="10"/>
+      <c r="A294" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B294" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="F294" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A295" s="9"/>
+      <c r="B295" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F295" s="5" t="n">
         <v>7138</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A296" s="10"/>
-      <c r="B296" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="F296" s="5" t="n">
+    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A297" s="9"/>
+      <c r="B297" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F297" s="5" t="n">
         <v>7141</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A297" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A298" s="10"/>
+      <c r="A298" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B298" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F298" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A299" s="9"/>
+      <c r="B299" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F299" s="5" t="n">
         <v>7148</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A300" s="10"/>
-      <c r="B300" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="F300" s="5" t="n">
+    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A301" s="9"/>
+      <c r="B301" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F301" s="5" t="n">
         <v>7151</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A301" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A302" s="10"/>
+      <c r="A302" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B302" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="F302" s="5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A303" s="9"/>
+      <c r="B303" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F303" s="5" t="n">
         <v>7158</v>
       </c>
     </row>

--- a/doc/协议/Modbus协议.xlsx
+++ b/doc/协议/Modbus协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="216">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -442,9 +442,15 @@
     <t xml:space="preserve">UTC时间</t>
   </si>
   <si>
+    <t xml:space="preserve">清除所有电能</t>
+  </si>
+  <si>
     <t xml:space="preserve">十二、相报警配置：03H功能码读，10H功能码写</t>
   </si>
   <si>
+    <t xml:space="preserve">L1相电压报警使能</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1相电压报警最大值</t>
   </si>
   <si>
@@ -457,36 +463,162 @@
     <t xml:space="preserve">L1相电压报警最小值</t>
   </si>
   <si>
-    <t xml:space="preserve">L1相电压报警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1相电流报警最大值</t>
-  </si>
-  <si>
     <t xml:space="preserve">L1相电流报警使能</t>
   </si>
   <si>
-    <t xml:space="preserve">L1相功率报警最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1相功率报警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2相电压报警最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2相功率报警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3相电压报警最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3相功率报警使能</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L1相电流报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">最小值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L1相功率报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">使能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L1相功率报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">最小值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L2相电压报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">使能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L2相功率报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">最小值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L3相电压报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">使能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">L3相功率报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">最小值</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">十三、回路报警配置：03H功能码读，10H功能码写</t>
   </si>
   <si>
+    <t xml:space="preserve">C1相电压报警使能</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1相电压报警最大值</t>
   </si>
   <si>
@@ -499,15 +631,36 @@
     <t xml:space="preserve">C1相电压报警最小值</t>
   </si>
   <si>
-    <t xml:space="preserve">C1相电压报警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6相功率报警使能</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C6相功率报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">最小值</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">十四、输出位报警配置：03H功能码读，10H功能码写</t>
   </si>
   <si>
+    <t xml:space="preserve">输出位1电流报警使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输出位48电流报警使能</t>
+  </si>
+  <si>
     <t xml:space="preserve">输出位1电流报警最大值</t>
   </si>
   <si>
@@ -532,10 +685,10 @@
     <t xml:space="preserve">输出位48电流报警最小值</t>
   </si>
   <si>
-    <t xml:space="preserve">输出位1电流报警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输出位48电流报警使能</t>
+    <t xml:space="preserve">输出位1功率报警使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输出位48功率报警使能</t>
   </si>
   <si>
     <t xml:space="preserve">输出位1功率报警最大值</t>
@@ -562,12 +715,6 @@
     <t xml:space="preserve">输出位48功率报警最小值</t>
   </si>
   <si>
-    <t xml:space="preserve">输出位1功率报警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输出位48功率报警使能</t>
-  </si>
-  <si>
     <t xml:space="preserve">输出位1上电延时</t>
   </si>
   <si>
@@ -592,6 +739,9 @@
     <t xml:space="preserve">十六、环境报警配置：03H功能码读，10H功能码写</t>
   </si>
   <si>
+    <t xml:space="preserve">温度1报警使能</t>
+  </si>
+  <si>
     <t xml:space="preserve">温度1报警最大值</t>
   </si>
   <si>
@@ -604,7 +754,7 @@
     <t xml:space="preserve">温度1报警最小值</t>
   </si>
   <si>
-    <t xml:space="preserve">温度1报警使能</t>
+    <t xml:space="preserve">湿度1报警使能</t>
   </si>
   <si>
     <t xml:space="preserve">湿度1报警最大值</t>
@@ -619,18 +769,57 @@
     <t xml:space="preserve">湿度1报警最小值</t>
   </si>
   <si>
-    <t xml:space="preserve">湿度1报警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温度2报警最大值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">湿度4报警使能</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">温度2报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">使能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">湿度4报警</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">最大值</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">十六、分组报警配置：03H功能码读，10H功能码写</t>
   </si>
   <si>
+    <t xml:space="preserve">分组1功率告警使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分组8功率告警使能</t>
+  </si>
+  <si>
     <t xml:space="preserve">分组1功率报警最大值</t>
   </si>
   <si>
@@ -653,12 +842,6 @@
   </si>
   <si>
     <t xml:space="preserve">分组8功率告警最小值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分组1功率告警使能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分组8功率告警使能</t>
   </si>
   <si>
     <t xml:space="preserve">分组1通断控制</t>
@@ -675,7 +858,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -736,6 +919,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -814,7 +1003,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -927,6 +1116,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,13 +1141,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J303"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F181" activeCellId="0" sqref="F181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.74"/>
@@ -2363,726 +2560,714 @@
         <v>139</v>
       </c>
     </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F175" s="5" t="n">
+        <v>6005</v>
+      </c>
+    </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9"/>
       <c r="F176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F178" s="12" t="n">
         <v>6101</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B179" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F179" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="F179" s="12" t="n">
         <v>6102</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F180" s="12" t="n">
         <v>6103</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F181" s="5" t="n">
+        <v>145</v>
+      </c>
+      <c r="F181" s="12" t="n">
         <v>6104</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B182" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F182" s="12" t="n">
         <v>6105</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B183" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="F183" s="5" t="n">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F184" s="12"/>
+    </row>
+    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B185" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F185" s="5" t="n">
         <v>6106</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A184" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B185" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F185" s="12" t="n">
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B187" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F187" s="12" t="n">
         <v>6110</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B186" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F186" s="5" t="n">
-        <v>6111</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A187" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B188" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F188" s="12" t="n">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F188" s="5" t="n">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A189" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B190" s="0" t="s">
         <v>150</v>
       </c>
       <c r="F190" s="12" t="n">
-        <v>6116</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A191" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B192" s="0" t="s">
         <v>151</v>
       </c>
       <c r="F192" s="12" t="n">
-        <v>6130</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A193" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B194" s="0" t="s">
         <v>152</v>
       </c>
       <c r="F194" s="12" t="n">
-        <v>6131</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A195" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B196" s="0" t="s">
         <v>153</v>
       </c>
       <c r="F196" s="12" t="n">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B198" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F198" s="12" t="n">
         <v>6145</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F197" s="12"/>
-    </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B199" s="0" t="s">
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F199" s="12"/>
+    </row>
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F199" s="12" t="n">
+    </row>
+    <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F201" s="12" t="n">
         <v>6201</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A200" s="9"/>
-      <c r="B200" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F200" s="5" t="n">
+    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B202" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F202" s="12" t="n">
         <v>6202</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B201" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="F201" s="12" t="n">
+    <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A203" s="9"/>
+      <c r="B203" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F203" s="12" t="n">
         <v>6203</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B202" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="F202" s="5" t="n">
+    <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B204" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F204" s="12" t="n">
         <v>6204</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B203" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="F203" s="12" t="n">
-        <v>6205</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A204" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B205" s="0" t="s">
         <v>160</v>
       </c>
       <c r="F205" s="12" t="n">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A207" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B208" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F208" s="12" t="n">
         <v>6290</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A208" s="9"/>
-      <c r="B208" s="0" t="s">
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F208" s="5" t="n">
+    </row>
+    <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="9"/>
+      <c r="B211" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F211" s="5" t="n">
         <v>6301</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A209" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A210" s="9"/>
-      <c r="B210" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F210" s="5" t="n">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9"/>
+      <c r="B213" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F213" s="5" t="n">
         <v>6348</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A212" s="9"/>
-      <c r="B212" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F212" s="5" t="n">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9"/>
+    </row>
+    <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A215" s="9"/>
+      <c r="B215" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F215" s="5" t="n">
         <v>6351</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A213" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A214" s="9"/>
-      <c r="B214" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F214" s="5" t="n">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A217" s="9"/>
+      <c r="B217" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F217" s="5" t="n">
         <v>6398</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A216" s="9"/>
-      <c r="B216" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="F216" s="5" t="n">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A219" s="9"/>
+      <c r="B219" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F219" s="5" t="n">
         <v>6401</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A217" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A218" s="9"/>
-      <c r="B218" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="F218" s="5" t="n">
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A220" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A221" s="9"/>
+      <c r="B221" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F221" s="5" t="n">
         <v>6448</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A220" s="9"/>
-      <c r="B220" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="F220" s="5" t="n">
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A223" s="9"/>
+      <c r="B223" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F223" s="5" t="n">
         <v>6451</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A221" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A222" s="9"/>
-      <c r="B222" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F222" s="5" t="n">
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A225" s="9"/>
+      <c r="B225" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F225" s="5" t="n">
         <v>6498</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A224" s="9"/>
-      <c r="B224" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F224" s="5" t="n">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A227" s="9"/>
+      <c r="B227" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F227" s="5" t="n">
         <v>6501</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A225" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A226" s="9"/>
-      <c r="B226" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="F226" s="5" t="n">
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A229" s="9"/>
+      <c r="B229" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="F229" s="5" t="n">
         <v>6548</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A227" s="9"/>
-      <c r="F227" s="5"/>
-    </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A228" s="9"/>
-      <c r="B228" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F228" s="5" t="n">
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A231" s="9"/>
+      <c r="B231" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F231" s="5" t="n">
         <v>6601</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A229" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A230" s="9"/>
-      <c r="B230" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="F230" s="5" t="n">
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A232" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A233" s="9"/>
+      <c r="B233" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F233" s="5" t="n">
         <v>6648</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A232" s="9"/>
-      <c r="B232" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="F232" s="5" t="n">
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A234" s="9"/>
+    </row>
+    <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A235" s="9"/>
+      <c r="B235" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F235" s="5" t="n">
         <v>6651</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A233" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A234" s="9"/>
-      <c r="B234" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="F234" s="5" t="n">
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A236" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A237" s="9"/>
+      <c r="B237" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F237" s="5" t="n">
         <v>6698</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A236" s="9"/>
-      <c r="B236" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="F236" s="5" t="n">
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A239" s="9"/>
+      <c r="B239" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F239" s="5" t="n">
         <v>6701</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A237" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A238" s="9"/>
-      <c r="B238" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F238" s="5" t="n">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A240" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A241" s="9"/>
+      <c r="B241" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F241" s="5" t="n">
         <v>6748</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A240" s="9"/>
-      <c r="B240" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="F240" s="5" t="n">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A243" s="9"/>
+      <c r="B243" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="F243" s="5" t="n">
         <v>6751</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A241" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A242" s="9"/>
-      <c r="B242" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="F242" s="5" t="n">
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A244" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A245" s="9"/>
+      <c r="B245" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F245" s="5" t="n">
         <v>6798</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A244" s="9"/>
-      <c r="B244" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="F244" s="5" t="n">
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A247" s="9"/>
+      <c r="B247" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F247" s="5" t="n">
         <v>6801</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A245" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A246" s="9"/>
-      <c r="B246" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F246" s="5" t="n">
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A248" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A249" s="9"/>
+      <c r="B249" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F249" s="5" t="n">
         <v>6848</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A248" s="9"/>
-      <c r="B248" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F248" s="5" t="n">
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A251" s="9"/>
+      <c r="B251" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F251" s="29" t="n">
         <v>6851</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A249" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A250" s="9"/>
-      <c r="B250" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F250" s="5" t="n">
-        <v>6898</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="F252" s="5"/>
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A252" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A253" s="9"/>
       <c r="B253" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F253" s="5" t="n">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F253" s="5" t="n">
-        <v>6901</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A254" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A255" s="9"/>
-      <c r="B255" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="F255" s="5" t="n">
-        <v>6948</v>
-      </c>
+      <c r="F255" s="5"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A256" s="9"/>
-      <c r="F256" s="5"/>
+      <c r="B256" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F256" s="5" t="n">
+        <v>6901</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A257" s="9"/>
+      <c r="A257" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B257" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A258" s="9"/>
+      <c r="B258" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="F257" s="5" t="n">
-        <v>6951</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A258" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>45</v>
+      <c r="F258" s="5" t="n">
+        <v>6948</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A259" s="9"/>
-      <c r="B259" s="0" t="s">
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A260" s="9"/>
+      <c r="B260" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="F259" s="5" t="n">
+      <c r="F260" s="5" t="n">
+        <v>6951</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A261" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B261" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A262" s="9"/>
+      <c r="B262" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F262" s="5" t="n">
         <v>6958</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B263" s="0" t="s">
+    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="F263" s="12" t="n">
+    </row>
+    <row r="266" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F266" s="12" t="n">
         <v>7001</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B264" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="F264" s="5" t="n">
+    <row r="267" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B267" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F267" s="5" t="n">
         <v>7002</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B265" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F265" s="12" t="n">
+    <row r="268" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B268" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F268" s="12" t="n">
         <v>7003</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B266" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F266" s="5" t="n">
+    <row r="269" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B269" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F269" s="5" t="n">
         <v>7004</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B267" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="F267" s="12" t="n">
+    <row r="270" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B270" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F270" s="12" t="n">
         <v>7005</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B269" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F269" s="12" t="n">
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="272" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B272" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F272" s="12" t="n">
         <v>7006</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B270" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F270" s="5" t="n">
+    <row r="273" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B273" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F273" s="5" t="n">
         <v>7007</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B271" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F271" s="12" t="n">
+    <row r="274" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B274" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F274" s="12" t="n">
         <v>7008</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B272" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F272" s="5" t="n">
+    <row r="275" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B275" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F275" s="5" t="n">
         <v>7009</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B273" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F273" s="12" t="n">
+    <row r="276" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B276" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F276" s="12" t="n">
         <v>7010</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A275" s="9"/>
-      <c r="B275" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F275" s="5" t="n">
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="279" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A279" s="9"/>
+      <c r="B279" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F279" s="5" t="n">
         <v>7011</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A276" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A277" s="9"/>
-      <c r="B277" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F277" s="5" t="n">
-        <v>7030</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A280" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A281" s="9"/>
       <c r="B281" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F281" s="5" t="n">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="F281" s="5" t="n">
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A282" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A283" s="9"/>
-      <c r="B283" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F283" s="5" t="n">
-        <v>7108</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    </row>
+    <row r="285" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="9"/>
       <c r="B285" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F285" s="5" t="n">
-        <v>7111</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="9" t="s">
         <v>45</v>
       </c>
@@ -3090,26 +3275,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="287" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="9"/>
       <c r="B287" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F287" s="5" t="n">
-        <v>7118</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A289" s="9"/>
       <c r="B289" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F289" s="5" t="n">
-        <v>7121</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7111</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A290" s="9" t="s">
         <v>45</v>
       </c>
@@ -3117,26 +3302,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="291" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A291" s="9"/>
       <c r="B291" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F291" s="5" t="n">
-        <v>7128</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="293" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A293" s="9"/>
       <c r="B293" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F293" s="5" t="n">
-        <v>7131</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A294" s="9" t="s">
         <v>45</v>
       </c>
@@ -3144,26 +3329,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="295" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A295" s="9"/>
       <c r="B295" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F295" s="5" t="n">
-        <v>7138</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="297" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A297" s="9"/>
       <c r="B297" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F297" s="5" t="n">
-        <v>7141</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7131</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A298" s="9" t="s">
         <v>45</v>
       </c>
@@ -3171,26 +3356,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="299" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A299" s="9"/>
       <c r="B299" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F299" s="5" t="n">
-        <v>7148</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="301" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A301" s="9"/>
       <c r="B301" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F301" s="5" t="n">
-        <v>7151</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A302" s="9" t="s">
         <v>45</v>
       </c>
@@ -3198,15 +3383,46 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="303" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A303" s="9"/>
       <c r="B303" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F303" s="5" t="n">
+        <v>7148</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A305" s="9"/>
+      <c r="B305" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="F303" s="5" t="n">
+      <c r="F305" s="5" t="n">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A306" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A307" s="9"/>
+      <c r="B307" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F307" s="5" t="n">
         <v>7158</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/doc/协议/Modbus协议.xlsx
+++ b/doc/协议/Modbus协议.xlsx
@@ -79,6 +79,12 @@
     <t xml:space="preserve">工作频率</t>
   </si>
   <si>
+    <t xml:space="preserve">设备时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8~9</t>
+  </si>
+  <si>
     <t xml:space="preserve">运行状态 0：正常 1：告警 2：故障 3: 离线</t>
   </si>
   <si>
@@ -94,13 +100,7 @@
     <t xml:space="preserve">总电能</t>
   </si>
   <si>
-    <t xml:space="preserve">12~13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">设备时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14~15</t>
+    <t xml:space="preserve">13~14</t>
   </si>
   <si>
     <t xml:space="preserve">三、相参数：03H功能码读</t>
@@ -466,151 +466,25 @@
     <t xml:space="preserve">L1相电流报警使能</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L1相电流报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">最小值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L1相功率报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">使能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L1相功率报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">最小值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L2相电压报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">使能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L2相功率报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">最小值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L3相电压报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">使能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L3相功率报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">最小值</t>
-    </r>
+    <t xml:space="preserve">L1相电流报最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1相功率报警使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1相功率报警最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2相电压报警使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2相功率报警最小值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3相电压报警使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3相功率报警最小值</t>
   </si>
   <si>
     <t xml:space="preserve">十三、回路报警配置：03H功能码读，10H功能码写</t>
@@ -631,25 +505,7 @@
     <t xml:space="preserve">C1相电压报警最小值</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">C6相功率报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">最小值</t>
-    </r>
+    <t xml:space="preserve">C6相功率报警最小值</t>
   </si>
   <si>
     <t xml:space="preserve">十四、输出位报警配置：03H功能码读，10H功能码写</t>
@@ -769,46 +625,10 @@
     <t xml:space="preserve">湿度1报警最小值</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">温度2报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">使能</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">湿度4报警</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">最大值</t>
-    </r>
+    <t xml:space="preserve">温度2报警使能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湿度4报警最大值</t>
   </si>
   <si>
     <t xml:space="preserve">十六、分组报警配置：03H功能码读，10H功能码写</t>
@@ -858,7 +678,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -919,12 +739,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1116,11 +930,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1143,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F181" activeCellId="0" sqref="F181"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -1256,44 +1070,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,9 +1118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="5"/>
-    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="5"/>
     </row>
@@ -1323,46 +1135,29 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>101</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="8" t="n">
-        <v>2</v>
-      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I26" s="8" t="n">
         <v>2</v>
@@ -1370,19 +1165,19 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="5" t="n">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>102</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I27" s="8" t="n">
         <v>2</v>
@@ -1390,1005 +1185,1017 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>104</v>
+        <v>35</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>108</v>
+        <v>40</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B33" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F33" s="6" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B35" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F35" s="6" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="5" t="n">
-        <v>119</v>
+      <c r="A36" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B38" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F38" s="6" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B40" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F40" s="5" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="6" t="n">
-        <v>131</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="6" t="n">
-        <v>138</v>
+        <v>55</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B50" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F50" s="6" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B52" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F52" s="6" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="53" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B54" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F54" s="5" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="6" t="n">
-        <v>201</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="F58" s="6" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" s="6" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B60" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B61" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F61" s="6" t="n">
         <v>205</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B62" s="0" t="s">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B63" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="6" t="n">
+      <c r="F63" s="6" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B65" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F65" s="5" t="n">
         <v>448</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A68" s="9"/>
-      <c r="B68" s="0" t="s">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A69" s="9"/>
+      <c r="B69" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" s="6" t="n">
-        <v>501</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="11"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>45</v>
+      <c r="F69" s="6" t="n">
+        <v>501</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A70" s="9"/>
+      <c r="A70" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B70" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C70" s="11"/>
       <c r="D70" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="6" t="n">
-        <v>548</v>
+      <c r="F70" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="9"/>
+      <c r="B71" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="C71" s="10"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="7"/>
+      <c r="D71" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>548</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="9"/>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="10"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A73" s="9"/>
+      <c r="B73" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="6" t="n">
+      <c r="F73" s="6" t="n">
         <v>551</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A73" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A74" s="9"/>
+      <c r="A74" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B74" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="6" t="n">
-        <v>598</v>
+        <v>45</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="9"/>
-      <c r="F75" s="6"/>
+      <c r="B75" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>598</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="9"/>
-      <c r="B76" s="0" t="s">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A77" s="9"/>
+      <c r="B77" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="6" t="n">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="11"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>45</v>
+      <c r="F77" s="6" t="n">
+        <v>601</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A78" s="9"/>
+      <c r="A78" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B78" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C78" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="C78" s="11"/>
       <c r="D78" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F78" s="6" t="n">
-        <v>648</v>
+      <c r="F78" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="9"/>
+      <c r="B79" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="9"/>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="10"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A81" s="9"/>
+      <c r="B81" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F80" s="6" t="n">
+      <c r="F81" s="6" t="n">
         <v>651</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A81" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B82" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A83" s="9"/>
+      <c r="B83" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F82" s="6" t="n">
+      <c r="F83" s="6" t="n">
         <v>698</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A84" s="9"/>
-      <c r="B84" s="0" t="s">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A85" s="9"/>
+      <c r="B85" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F84" s="6" t="n">
+      <c r="F85" s="6" t="n">
         <v>701</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A85" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A86" s="9"/>
+      <c r="A86" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B86" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A87" s="9"/>
+      <c r="B87" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F86" s="6" t="n">
+      <c r="F87" s="6" t="n">
         <v>796</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A88" s="9"/>
-      <c r="B88" s="0" t="s">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A89" s="9"/>
+      <c r="B89" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="6" t="n">
+      <c r="F89" s="6" t="n">
         <v>801</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A89" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A90" s="9"/>
+      <c r="A90" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B90" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A91" s="9"/>
+      <c r="B91" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F90" s="6" t="n">
+      <c r="F91" s="6" t="n">
         <v>848</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A92" s="9"/>
-      <c r="B92" s="0" t="s">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A93" s="9"/>
+      <c r="B93" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="6" t="n">
+      <c r="F93" s="6" t="n">
         <v>851</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A93" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A94" s="9"/>
+      <c r="A94" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B94" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A95" s="9"/>
+      <c r="B95" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="F94" s="6" t="n">
+      <c r="F95" s="6" t="n">
         <v>898</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B99" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F98" s="6" t="n">
+      <c r="F99" s="6" t="n">
         <v>1001</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A99" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F99" s="6"/>
-    </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B100" s="0" t="s">
+      <c r="A100" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B101" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F100" s="6" t="n">
+      <c r="F101" s="6" t="n">
         <v>1006</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F101" s="6"/>
-    </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A102" s="9"/>
-      <c r="B102" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F102" s="6" t="n">
-        <v>1011</v>
-      </c>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="9"/>
       <c r="B103" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F103" s="6" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="9"/>
       <c r="B104" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A105" s="9"/>
+      <c r="B105" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F104" s="6" t="n">
+      <c r="F105" s="6" t="n">
         <v>1013</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A105" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F105" s="6"/>
-    </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="9"/>
-      <c r="B106" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F106" s="6" t="n">
-        <v>1019</v>
-      </c>
+      <c r="A106" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="9"/>
-      <c r="F107" s="6"/>
+      <c r="B107" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="6" t="n">
+        <v>1019</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="9"/>
-      <c r="B108" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108" s="6" t="n">
-        <v>1021</v>
-      </c>
+      <c r="F108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="9"/>
       <c r="B109" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F109" s="6" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="9"/>
       <c r="B110" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F110" s="6" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A111" s="9"/>
+      <c r="B111" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F110" s="6" t="n">
+      <c r="F111" s="6" t="n">
         <v>1023</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F111" s="6"/>
-    </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="9"/>
-      <c r="B112" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F112" s="6" t="n">
-        <v>1138</v>
-      </c>
+      <c r="A112" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="9"/>
-      <c r="F113" s="6"/>
+      <c r="B113" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F113" s="6" t="n">
+        <v>1138</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="9"/>
-      <c r="B114" s="0" t="s">
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A115" s="9"/>
+      <c r="B115" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="F114" s="6" t="n">
+      <c r="F115" s="6" t="n">
         <v>1201</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F115" s="6"/>
-    </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="9"/>
+      <c r="A116" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B116" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F116" s="6" t="n">
-        <v>1248</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="9"/>
-      <c r="F117" s="6"/>
+      <c r="B117" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>1248</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="9"/>
-      <c r="B118" s="0" t="s">
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A119" s="9"/>
+      <c r="B119" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="6" t="n">
+      <c r="F119" s="6" t="n">
         <v>1251</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A119" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F119" s="6"/>
-    </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A120" s="9"/>
+      <c r="A120" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B120" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A121" s="9"/>
+      <c r="B121" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F120" s="6" t="n">
+      <c r="F121" s="6" t="n">
         <v>1298</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A122" s="9"/>
-      <c r="B122" s="0" t="s">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="9"/>
+      <c r="B123" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F122" s="6" t="n">
+      <c r="F123" s="6" t="n">
         <v>1301</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A123" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F123" s="6"/>
-    </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A124" s="9"/>
+      <c r="A124" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B124" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F124" s="6" t="n">
-        <v>1348</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="9"/>
-      <c r="F125" s="6"/>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="9"/>
       <c r="F126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="9"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F127" s="6"/>
-    </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A128" s="9"/>
-      <c r="B128" s="0" t="s">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A129" s="9"/>
+      <c r="B129" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="6" t="n">
+      <c r="F129" s="6" t="n">
         <v>1601</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F129" s="6"/>
-    </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="9"/>
+      <c r="A130" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B130" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F130" s="6" t="n">
-        <v>1608</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="9"/>
-      <c r="F131" s="6"/>
+      <c r="B131" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>1608</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="9"/>
-      <c r="B132" s="0" t="s">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A133" s="9"/>
+      <c r="B133" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F132" s="6" t="n">
+      <c r="F133" s="6" t="n">
         <v>1611</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F133" s="6"/>
-    </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="9"/>
+      <c r="A134" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B134" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F134" s="6" t="n">
-        <v>1618</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="9"/>
-      <c r="F135" s="6"/>
+      <c r="B135" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>1618</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="9"/>
-      <c r="B136" s="0" t="s">
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A137" s="9"/>
+      <c r="B137" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F136" s="6" t="n">
+      <c r="F137" s="6" t="n">
         <v>1621</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F137" s="6"/>
-    </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A138" s="9"/>
+      <c r="A138" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B138" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F138" s="6" t="n">
-        <v>1628</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="9"/>
-      <c r="F139" s="6"/>
+      <c r="B139" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>1628</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="9"/>
-      <c r="B140" s="0" t="s">
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A141" s="9"/>
+      <c r="B141" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F140" s="6" t="n">
+      <c r="F141" s="6" t="n">
         <v>1631</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A141" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F141" s="6"/>
-    </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A142" s="9"/>
+      <c r="A142" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B142" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F142" s="6" t="n">
-        <v>1646</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="9"/>
-      <c r="F143" s="6"/>
+      <c r="B143" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F143" s="6" t="n">
+        <v>1646</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="9"/>
-      <c r="B144" s="0" t="s">
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A145" s="9"/>
+      <c r="B145" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F144" s="6" t="n">
+      <c r="F145" s="6" t="n">
         <v>1651</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A145" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F145" s="6"/>
-    </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="9"/>
+      <c r="A146" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B146" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F146" s="6" t="n">
-        <v>1658</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="9"/>
-      <c r="F147" s="6"/>
-    </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F147" s="6" t="n">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A148" s="9"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9"/>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B151" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F151" s="12" t="n">
-        <v>1771</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B152" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F152" s="12" t="n">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B153" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F152" s="5" t="n">
+      <c r="F153" s="5" t="n">
         <v>1772</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A153" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A154" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B154" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F154" s="12" t="n">
-        <v>1777</v>
+        <v>45</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B155" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F155" s="12" t="n">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B156" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F155" s="5" t="n">
+      <c r="F156" s="5" t="n">
         <v>1778</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F156" s="5"/>
-    </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B157" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F157" s="5" t="n">
-        <v>1781</v>
-      </c>
+      <c r="F157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B158" s="0" t="s">
         <v>118</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2396,15 +2203,15 @@
         <v>119</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2412,15 +2219,15 @@
         <v>120</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -2428,998 +2235,1005 @@
         <v>121</v>
       </c>
       <c r="F164" s="5" t="n">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F165" s="5" t="n">
         <v>1788</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F165" s="5"/>
-    </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B166" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F166" s="12" t="n">
-        <v>1791</v>
-      </c>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F167" s="5" t="n">
-        <v>1792</v>
+        <v>122</v>
+      </c>
+      <c r="F167" s="12" t="n">
+        <v>1791</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F168" s="12" t="n">
-        <v>1793</v>
+        <v>123</v>
+      </c>
+      <c r="F168" s="5" t="n">
+        <v>1792</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B169" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F169" s="12" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B170" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="F169" s="5" t="n">
+      <c r="F170" s="5" t="n">
         <v>1794</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D172" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F172" s="16" t="n">
-        <v>6001</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H172" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I172" s="15" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C173" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D173" s="19" t="n">
+        <v>127</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D173" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F173" s="16" t="n">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="G173" s="16" t="s">
         <v>129</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I173" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="20" t="n">
+    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D174" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F174" s="16" t="n">
+        <v>6002</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H174" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I174" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B174" s="21" t="s">
+      <c r="B175" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C174" s="22"/>
-      <c r="D174" s="23" t="s">
+      <c r="C175" s="22"/>
+      <c r="D175" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E174" s="24" t="s">
+      <c r="E175" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="F174" s="25" t="s">
+      <c r="F175" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="G174" s="25" t="s">
+      <c r="G175" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H174" s="26" t="s">
+      <c r="H175" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I174" s="27" t="n">
+      <c r="I175" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="J174" s="27" t="s">
+      <c r="J175" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="0" t="s">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F175" s="5" t="n">
+      <c r="F176" s="5" t="n">
         <v>6005</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9"/>
-      <c r="F176" s="5"/>
-    </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="9"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="0" t="s">
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="F178" s="12" t="n">
+      <c r="F179" s="12" t="n">
         <v>6101</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B179" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F179" s="12" t="n">
-        <v>6102</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>6103</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>6104</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B182" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F182" s="12" t="n">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B183" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F182" s="12" t="n">
+      <c r="F183" s="12" t="n">
         <v>6105</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F184" s="12"/>
-    </row>
-    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B185" s="28" t="s">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F185" s="12"/>
+    </row>
+    <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B186" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="F185" s="5" t="n">
+      <c r="F186" s="5" t="n">
         <v>6106</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A186" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B187" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F187" s="12" t="n">
-        <v>6110</v>
+    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A187" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B188" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F188" s="12" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B189" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F188" s="5" t="n">
+      <c r="F189" s="5" t="n">
         <v>6111</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A189" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B190" s="0" t="s">
+    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A190" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B191" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F190" s="12" t="n">
+      <c r="F191" s="12" t="n">
         <v>6115</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B192" s="0" t="s">
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B193" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F192" s="12" t="n">
+      <c r="F193" s="12" t="n">
         <v>6116</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A193" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B194" s="0" t="s">
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A194" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B195" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F194" s="12" t="n">
+      <c r="F195" s="12" t="n">
         <v>6130</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B196" s="0" t="s">
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B197" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F196" s="12" t="n">
+      <c r="F197" s="12" t="n">
         <v>6131</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A197" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B198" s="0" t="s">
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B199" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="F198" s="12" t="n">
+      <c r="F199" s="12" t="n">
         <v>6145</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F199" s="12"/>
-    </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="F200" s="12"/>
+    </row>
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="0" t="s">
+    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="F201" s="12" t="n">
+      <c r="F202" s="12" t="n">
         <v>6201</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B202" s="0" t="s">
+    <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B203" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F202" s="12" t="n">
+      <c r="F203" s="12" t="n">
         <v>6202</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A203" s="9"/>
-      <c r="B203" s="0" t="s">
+    <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A204" s="9"/>
+      <c r="B204" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="F203" s="12" t="n">
+      <c r="F204" s="12" t="n">
         <v>6203</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B204" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="F204" s="12" t="n">
-        <v>6204</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B205" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F205" s="12" t="n">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B206" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F205" s="12" t="n">
+      <c r="F206" s="12" t="n">
         <v>6205</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A207" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B208" s="0" t="s">
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A208" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B209" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F208" s="12" t="n">
+      <c r="F209" s="12" t="n">
         <v>6290</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="9"/>
-      <c r="B211" s="0" t="s">
+    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9"/>
+      <c r="B212" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="F211" s="5" t="n">
+      <c r="F212" s="5" t="n">
         <v>6301</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="9"/>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B213" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9"/>
+      <c r="B214" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F213" s="5" t="n">
+      <c r="F214" s="5" t="n">
         <v>6348</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="9"/>
-    </row>
-    <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="9"/>
-      <c r="B215" s="0" t="s">
+    </row>
+    <row r="216" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A216" s="9"/>
+      <c r="B216" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="F215" s="5" t="n">
+      <c r="F216" s="5" t="n">
         <v>6351</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A216" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A217" s="9"/>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A217" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B217" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A218" s="9"/>
+      <c r="B218" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F217" s="5" t="n">
+      <c r="F218" s="5" t="n">
         <v>6398</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A219" s="9"/>
-      <c r="B219" s="0" t="s">
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A220" s="9"/>
+      <c r="B220" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="F219" s="5" t="n">
+      <c r="F220" s="5" t="n">
         <v>6401</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A220" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A221" s="9"/>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A221" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B221" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A222" s="9"/>
+      <c r="B222" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="F221" s="5" t="n">
+      <c r="F222" s="5" t="n">
         <v>6448</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A223" s="9"/>
-      <c r="B223" s="0" t="s">
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A224" s="9"/>
+      <c r="B224" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F223" s="5" t="n">
+      <c r="F224" s="5" t="n">
         <v>6451</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A224" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A225" s="9"/>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A225" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B225" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A226" s="9"/>
+      <c r="B226" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F225" s="5" t="n">
+      <c r="F226" s="5" t="n">
         <v>6498</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A227" s="9"/>
-      <c r="B227" s="0" t="s">
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A228" s="9"/>
+      <c r="B228" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="F227" s="5" t="n">
+      <c r="F228" s="5" t="n">
         <v>6501</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A228" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A229" s="9"/>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A229" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B229" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A230" s="9"/>
+      <c r="B230" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="F229" s="5" t="n">
+      <c r="F230" s="5" t="n">
         <v>6548</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A231" s="9"/>
-      <c r="B231" s="0" t="s">
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A232" s="9"/>
+      <c r="B232" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F231" s="5" t="n">
+      <c r="F232" s="5" t="n">
         <v>6601</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A232" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A233" s="9"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A233" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B233" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A234" s="9"/>
+      <c r="B234" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="F233" s="5" t="n">
+      <c r="F234" s="5" t="n">
         <v>6648</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A234" s="9"/>
-    </row>
-    <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A235" s="9"/>
-      <c r="B235" s="0" t="s">
+    </row>
+    <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A236" s="9"/>
+      <c r="B236" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F235" s="5" t="n">
+      <c r="F236" s="5" t="n">
         <v>6651</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A236" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A237" s="9"/>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A237" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B237" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A238" s="9"/>
+      <c r="B238" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F237" s="5" t="n">
+      <c r="F238" s="5" t="n">
         <v>6698</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A239" s="9"/>
-      <c r="B239" s="0" t="s">
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A240" s="9"/>
+      <c r="B240" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F239" s="5" t="n">
+      <c r="F240" s="5" t="n">
         <v>6701</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A240" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A241" s="9"/>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A241" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B241" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A242" s="9"/>
+      <c r="B242" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F241" s="5" t="n">
+      <c r="F242" s="5" t="n">
         <v>6748</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A243" s="9"/>
-      <c r="B243" s="0" t="s">
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A244" s="9"/>
+      <c r="B244" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="F243" s="5" t="n">
+      <c r="F244" s="5" t="n">
         <v>6751</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A244" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A245" s="9"/>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A245" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B245" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A246" s="9"/>
+      <c r="B246" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F245" s="5" t="n">
+      <c r="F246" s="5" t="n">
         <v>6798</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A247" s="9"/>
-      <c r="B247" s="0" t="s">
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="248" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A248" s="9"/>
+      <c r="B248" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="F247" s="5" t="n">
+      <c r="F248" s="5" t="n">
         <v>6801</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A248" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A249" s="9"/>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A249" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B249" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A250" s="9"/>
+      <c r="B250" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F249" s="5" t="n">
+      <c r="F250" s="5" t="n">
         <v>6848</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A251" s="9"/>
-      <c r="B251" s="0" t="s">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="252" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A252" s="9"/>
+      <c r="B252" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F251" s="29" t="n">
+      <c r="F252" s="29" t="n">
         <v>6851</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A252" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A253" s="9"/>
+      <c r="A253" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B253" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A254" s="9"/>
+      <c r="B254" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F253" s="5" t="n">
+      <c r="F254" s="5" t="n">
         <v>6898</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F255" s="5"/>
-    </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A256" s="9"/>
-      <c r="B256" s="0" t="s">
+      <c r="F256" s="5"/>
+    </row>
+    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A257" s="9"/>
+      <c r="B257" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="F256" s="5" t="n">
+      <c r="F257" s="5" t="n">
         <v>6901</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A257" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A258" s="9"/>
+      <c r="A258" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B258" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F258" s="5" t="n">
-        <v>6948</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A259" s="9"/>
-      <c r="F259" s="5"/>
+      <c r="B259" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F259" s="5" t="n">
+        <v>6948</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A260" s="9"/>
-      <c r="B260" s="0" t="s">
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A261" s="9"/>
+      <c r="B261" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="F260" s="5" t="n">
+      <c r="F261" s="5" t="n">
         <v>6951</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A261" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A262" s="9"/>
+      <c r="A262" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B262" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A263" s="9"/>
+      <c r="B263" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="F262" s="5" t="n">
+      <c r="F263" s="5" t="n">
         <v>6958</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="28" t="s">
+    <row r="267" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="F266" s="12" t="n">
+      <c r="F267" s="12" t="n">
         <v>7001</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B267" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F267" s="5" t="n">
-        <v>7002</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F268" s="12" t="n">
-        <v>7003</v>
+        <v>192</v>
+      </c>
+      <c r="F268" s="5" t="n">
+        <v>7002</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="F269" s="5" t="n">
-        <v>7004</v>
+        <v>193</v>
+      </c>
+      <c r="F269" s="12" t="n">
+        <v>7003</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B270" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F270" s="5" t="n">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B271" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="F270" s="12" t="n">
+      <c r="F271" s="12" t="n">
         <v>7005</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="272" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B272" s="28" t="s">
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="273" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B273" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="F272" s="12" t="n">
+      <c r="F273" s="12" t="n">
         <v>7006</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B273" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F273" s="5" t="n">
-        <v>7007</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F274" s="12" t="n">
-        <v>7008</v>
+        <v>197</v>
+      </c>
+      <c r="F274" s="5" t="n">
+        <v>7007</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="F275" s="5" t="n">
-        <v>7009</v>
+        <v>198</v>
+      </c>
+      <c r="F275" s="12" t="n">
+        <v>7008</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B276" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F276" s="5" t="n">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B277" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F276" s="12" t="n">
+      <c r="F277" s="12" t="n">
         <v>7010</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="279" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A279" s="9"/>
-      <c r="B279" s="0" t="s">
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="280" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A280" s="9"/>
+      <c r="B280" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="F279" s="5" t="n">
+      <c r="F280" s="5" t="n">
         <v>7011</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A280" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A281" s="9"/>
+    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A281" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B281" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A282" s="9"/>
+      <c r="B282" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F281" s="5" t="n">
+      <c r="F282" s="5" t="n">
         <v>7030</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="9"/>
-      <c r="B285" s="0" t="s">
+    <row r="286" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="9"/>
+      <c r="B286" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="F285" s="5" t="n">
+      <c r="F286" s="5" t="n">
         <v>7101</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="9"/>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B287" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="9"/>
+      <c r="B288" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="F287" s="5" t="n">
+      <c r="F288" s="5" t="n">
         <v>7108</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A289" s="9"/>
-      <c r="B289" s="0" t="s">
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A290" s="9"/>
+      <c r="B290" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="F289" s="5" t="n">
+      <c r="F290" s="5" t="n">
         <v>7111</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A290" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A291" s="9"/>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A291" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B291" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A292" s="9"/>
+      <c r="B292" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="F291" s="5" t="n">
+      <c r="F292" s="5" t="n">
         <v>7118</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="293" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A293" s="9"/>
-      <c r="B293" s="0" t="s">
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="294" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A294" s="9"/>
+      <c r="B294" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F293" s="5" t="n">
+      <c r="F294" s="5" t="n">
         <v>7121</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A294" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A295" s="9"/>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A295" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B295" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A296" s="9"/>
+      <c r="B296" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="F295" s="5" t="n">
+      <c r="F296" s="5" t="n">
         <v>7128</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="297" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A297" s="9"/>
-      <c r="B297" s="0" t="s">
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="298" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A298" s="9"/>
+      <c r="B298" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F297" s="5" t="n">
+      <c r="F298" s="5" t="n">
         <v>7131</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A298" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A299" s="9"/>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A299" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B299" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A300" s="9"/>
+      <c r="B300" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F299" s="5" t="n">
+      <c r="F300" s="5" t="n">
         <v>7138</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="301" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A301" s="9"/>
-      <c r="B301" s="0" t="s">
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="302" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A302" s="9"/>
+      <c r="B302" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F301" s="5" t="n">
+      <c r="F302" s="5" t="n">
         <v>7141</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A302" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A303" s="9"/>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A303" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B303" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A304" s="9"/>
+      <c r="B304" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F303" s="5" t="n">
+      <c r="F304" s="5" t="n">
         <v>7148</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A305" s="9"/>
-      <c r="B305" s="0" t="s">
+    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A306" s="9"/>
+      <c r="B306" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="F305" s="5" t="n">
+      <c r="F306" s="5" t="n">
         <v>7151</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A306" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A307" s="9"/>
+      <c r="A307" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="B307" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A308" s="9"/>
+      <c r="B308" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="F307" s="5" t="n">
+      <c r="F308" s="5" t="n">
         <v>7158</v>
       </c>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/doc/协议/Modbus协议.xlsx
+++ b/doc/协议/Modbus协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="214">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -79,12 +79,6 @@
     <t xml:space="preserve">工作频率</t>
   </si>
   <si>
-    <t xml:space="preserve">设备时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8~9</t>
-  </si>
-  <si>
     <t xml:space="preserve">运行状态 0：正常 1：告警 2：故障 3: 离线</t>
   </si>
   <si>
@@ -100,7 +94,7 @@
     <t xml:space="preserve">总电能</t>
   </si>
   <si>
-    <t xml:space="preserve">13~14</t>
+    <t xml:space="preserve">12~13</t>
   </si>
   <si>
     <t xml:space="preserve">三、相参数：03H功能码读</t>
@@ -1070,55 +1064,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="F13" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="5"/>
+    </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="5"/>
     </row>
@@ -1135,29 +1124,46 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>101</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="H26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I26" s="8" t="n">
         <v>2</v>
@@ -1165,19 +1171,19 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="6" t="n">
-        <v>102</v>
+      <c r="E27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>103</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I27" s="8" t="n">
         <v>2</v>
@@ -1185,2055 +1191,2036 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="8" t="n">
-        <v>2</v>
+      <c r="F28" s="6" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>105</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>41</v>
+      <c r="F31" s="6" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B34" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="6" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
+      <c r="F34" s="6" t="n">
+        <v>111</v>
+      </c>
+    </row>
     <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="A35" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B36" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="6" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>45</v>
+      <c r="F36" s="5" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B37" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B39" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="5" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="F39" s="5" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="6" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B40" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B42" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="5" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>49</v>
+      <c r="E42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B47" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="F47" s="6" t="n">
-        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B48" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>56</v>
+      <c r="F48" s="6" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B49" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B51" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="6" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="F51" s="6" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B53" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F50" s="6" t="n">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="F53" s="5" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F52" s="6" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B54" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B56" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>61</v>
+      <c r="E56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F58" s="6" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F59" s="6" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B60" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B62" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F60" s="6" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="F62" s="6" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B64" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="6" t="n">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="F64" s="5" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="6" t="n">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B65" s="0" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A68" s="9"/>
+      <c r="B68" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F65" s="5" t="n">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="E68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>501</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A69" s="9"/>
+      <c r="A69" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B69" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A70" s="9"/>
+      <c r="B70" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F69" s="6" t="n">
-        <v>501</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A70" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="11"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>548</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="9"/>
-      <c r="B71" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="C71" s="10"/>
-      <c r="D71" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F71" s="6" t="n">
-        <v>548</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="7"/>
+      <c r="B72" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>551</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A73" s="9"/>
+      <c r="A73" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B73" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" s="6" t="n">
-        <v>551</v>
+        <v>43</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A74" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A74" s="9"/>
       <c r="B74" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>598</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="9"/>
-      <c r="B75" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F75" s="6" t="n">
-        <v>598</v>
-      </c>
+      <c r="F75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="9"/>
-      <c r="F76" s="6"/>
+      <c r="B76" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>601</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A77" s="9"/>
+      <c r="A77" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B77" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="C77" s="11"/>
       <c r="D77" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="6" t="n">
-        <v>601</v>
+        <v>31</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A78" s="9"/>
       <c r="B78" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="C78" s="10"/>
       <c r="D78" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>648</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="9"/>
-      <c r="B79" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F79" s="6" t="n">
-        <v>648</v>
-      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="9"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>651</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B81" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A82" s="9"/>
+      <c r="B82" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A84" s="9"/>
+      <c r="B84" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F81" s="6" t="n">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A83" s="9"/>
-      <c r="B83" s="0" t="s">
+      <c r="F84" s="6" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A86" s="9"/>
+      <c r="B86" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="6" t="n">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A85" s="9"/>
-      <c r="B85" s="0" t="s">
+      <c r="F86" s="6" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A88" s="9"/>
+      <c r="B88" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F85" s="6" t="n">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A86" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A87" s="9"/>
-      <c r="B87" s="0" t="s">
+      <c r="F88" s="6" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A90" s="9"/>
+      <c r="B90" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="6" t="n">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A89" s="9"/>
-      <c r="B89" s="0" t="s">
+      <c r="F90" s="6" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A92" s="9"/>
+      <c r="B92" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F89" s="6" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A91" s="9"/>
-      <c r="B91" s="0" t="s">
+      <c r="F92" s="6" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A94" s="9"/>
+      <c r="B94" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F91" s="6" t="n">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A93" s="9"/>
-      <c r="B93" s="0" t="s">
+      <c r="F94" s="6" t="n">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F93" s="6" t="n">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A94" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A95" s="9"/>
-      <c r="B95" s="0" t="s">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B98" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="6" t="n">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="F98" s="6" t="n">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A99" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B100" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="F100" s="6" t="n">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A102" s="9"/>
+      <c r="B102" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F99" s="6" t="n">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A100" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F101" s="6" t="n">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F102" s="6"/>
+      <c r="F102" s="6" t="n">
+        <v>1011</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="9"/>
       <c r="B103" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F103" s="6" t="n">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="9"/>
       <c r="B104" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A106" s="9"/>
+      <c r="B106" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F104" s="6" t="n">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A105" s="9"/>
-      <c r="B105" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F105" s="6" t="n">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A106" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F106" s="6"/>
+      <c r="F106" s="6" t="n">
+        <v>1019</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="9"/>
-      <c r="B107" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="6" t="n">
-        <v>1019</v>
-      </c>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="9"/>
-      <c r="F108" s="6"/>
+      <c r="B108" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="6" t="n">
+        <v>1021</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="9"/>
       <c r="B109" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F109" s="6" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="9"/>
       <c r="B110" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="6" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A112" s="9"/>
+      <c r="B112" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F110" s="6" t="n">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A111" s="9"/>
-      <c r="B111" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F111" s="6" t="n">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F112" s="6"/>
+      <c r="F112" s="6" t="n">
+        <v>1138</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="9"/>
-      <c r="B113" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F113" s="6" t="n">
-        <v>1138</v>
-      </c>
+      <c r="F113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="9"/>
-      <c r="F114" s="6"/>
+      <c r="B114" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="6" t="n">
+        <v>1201</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A115" s="9"/>
+      <c r="A115" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B115" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F115" s="6" t="n">
-        <v>1201</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A116" s="9"/>
       <c r="B116" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F116" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>1248</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="9"/>
-      <c r="B117" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F117" s="6" t="n">
-        <v>1248</v>
-      </c>
+      <c r="F117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="9"/>
-      <c r="F118" s="6"/>
+      <c r="B118" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>1251</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A119" s="9"/>
+      <c r="A119" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B119" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A120" s="9"/>
+      <c r="B120" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A122" s="9"/>
+      <c r="B122" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="F119" s="6" t="n">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A121" s="9"/>
-      <c r="B121" s="0" t="s">
+      <c r="F122" s="6" t="n">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A124" s="9"/>
+      <c r="B124" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F121" s="6" t="n">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A123" s="9"/>
-      <c r="B123" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F123" s="6" t="n">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A124" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F124" s="6"/>
+      <c r="F124" s="6" t="n">
+        <v>1348</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A125" s="9"/>
-      <c r="B125" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F125" s="6" t="n">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9"/>
       <c r="F126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9"/>
+      <c r="A127" s="0" t="s">
+        <v>100</v>
+      </c>
       <c r="F127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A128" s="9"/>
+      <c r="B128" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A130" s="9"/>
+      <c r="B130" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F128" s="6"/>
-    </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A129" s="9"/>
-      <c r="B129" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F129" s="6" t="n">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A130" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F130" s="6"/>
+      <c r="F130" s="6" t="n">
+        <v>1608</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="9"/>
-      <c r="B131" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F131" s="6" t="n">
-        <v>1608</v>
-      </c>
+      <c r="F131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="9"/>
-      <c r="F132" s="6"/>
+      <c r="B132" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>1611</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A133" s="9"/>
+      <c r="A133" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B133" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F133" s="6" t="n">
-        <v>1611</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A134" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A134" s="9"/>
       <c r="B134" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F134" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>1618</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="9"/>
-      <c r="B135" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F135" s="6" t="n">
-        <v>1618</v>
-      </c>
+      <c r="F135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="9"/>
-      <c r="F136" s="6"/>
+      <c r="B136" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>1621</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A137" s="9"/>
+      <c r="A137" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B137" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F137" s="6" t="n">
-        <v>1621</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A138" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A138" s="9"/>
       <c r="B138" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F138" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>1628</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="9"/>
-      <c r="B139" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F139" s="6" t="n">
-        <v>1628</v>
-      </c>
+      <c r="F139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="9"/>
-      <c r="F140" s="6"/>
+      <c r="B140" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>1631</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A141" s="9"/>
+      <c r="A141" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B141" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F141" s="6" t="n">
-        <v>1631</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A142" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A142" s="9"/>
       <c r="B142" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F142" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="F142" s="6" t="n">
+        <v>1646</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="9"/>
-      <c r="B143" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F143" s="6" t="n">
-        <v>1646</v>
-      </c>
+      <c r="F143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A144" s="9"/>
-      <c r="F144" s="6"/>
+      <c r="B144" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F144" s="6" t="n">
+        <v>1651</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A145" s="9"/>
+      <c r="A145" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B145" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F145" s="6" t="n">
-        <v>1651</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A146" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="A146" s="9"/>
       <c r="B146" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F146" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="F146" s="6" t="n">
+        <v>1658</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="9"/>
-      <c r="B147" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F147" s="6" t="n">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9"/>
-      <c r="F149" s="6"/>
-    </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>113</v>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B151" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F151" s="12" t="n">
+        <v>1771</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B152" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F152" s="5" t="n">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A153" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B154" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="F152" s="12" t="n">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B153" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F153" s="5" t="n">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A154" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>45</v>
+      <c r="F154" s="12" t="n">
+        <v>1777</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B155" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F155" s="5" t="n">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B157" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="F155" s="12" t="n">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B156" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F156" s="5" t="n">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F157" s="5"/>
+      <c r="F157" s="5" t="n">
+        <v>1781</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B158" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F158" s="5" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B159" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F159" s="5" t="n">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F160" s="5" t="n">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F161" s="5" t="n">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B162" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F162" s="5" t="n">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B163" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F163" s="5" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B164" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F164" s="5" t="n">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B165" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F165" s="5" t="n">
-        <v>1788</v>
-      </c>
+      <c r="F165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F166" s="5"/>
+      <c r="B166" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F166" s="12" t="n">
+        <v>1791</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B167" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F167" s="12" t="n">
-        <v>1791</v>
+        <v>121</v>
+      </c>
+      <c r="F167" s="5" t="n">
+        <v>1792</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B168" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F168" s="5" t="n">
-        <v>1792</v>
+        <v>122</v>
+      </c>
+      <c r="F168" s="12" t="n">
+        <v>1793</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B169" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F169" s="5" t="n">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F169" s="12" t="n">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B170" s="0" t="s">
+    </row>
+    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F170" s="5" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="C172" s="15" t="s">
         <v>126</v>
+      </c>
+      <c r="D172" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F172" s="16" t="n">
+        <v>6001</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H172" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I172" s="15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D173" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="E173" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F173" s="16" t="n">
+        <v>6002</v>
+      </c>
+      <c r="G173" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C173" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D173" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F173" s="16" t="n">
-        <v>6001</v>
-      </c>
-      <c r="G173" s="16" t="s">
-        <v>129</v>
-      </c>
       <c r="H173" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I173" s="15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C174" s="18" t="s">
+    <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B174" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D174" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F174" s="16" t="n">
-        <v>6002</v>
-      </c>
-      <c r="G174" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H174" s="17" t="s">
+      <c r="C174" s="22"/>
+      <c r="D174" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I174" s="15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B175" s="21" t="s">
+      <c r="E174" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C175" s="22"/>
-      <c r="D175" s="23" t="s">
+      <c r="F174" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E175" s="24" t="s">
+      <c r="G174" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F175" s="25" t="s">
+      <c r="H174" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I174" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J174" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G175" s="25" t="s">
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="H175" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I175" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J175" s="27" t="s">
+      <c r="F175" s="5" t="n">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="0" t="s">
+    <row r="178" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="F176" s="5" t="n">
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9"/>
-      <c r="F177" s="5"/>
-    </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="F178" s="12" t="n">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B179" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="0" t="s">
-        <v>142</v>
-      </c>
       <c r="F179" s="12" t="n">
-        <v>6101</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B180" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F180" s="12" t="n">
-        <v>6102</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B181" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F181" s="12" t="n">
-        <v>6103</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B182" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F182" s="12" t="n">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="F184" s="12"/>
+    </row>
+    <row r="185" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B185" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="F182" s="12" t="n">
-        <v>6104</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B183" s="0" t="s">
+      <c r="F185" s="5" t="n">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B187" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F183" s="12" t="n">
-        <v>6105</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="F185" s="12"/>
-    </row>
-    <row r="186" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B186" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F186" s="5" t="n">
-        <v>6106</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A187" s="9" t="s">
-        <v>45</v>
+      <c r="F187" s="12" t="n">
+        <v>6110</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B188" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F188" s="5" t="n">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A189" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B190" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F188" s="12" t="n">
-        <v>6110</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B189" s="0" t="s">
+      <c r="F190" s="12" t="n">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="192" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B192" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F189" s="5" t="n">
-        <v>6111</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A190" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B191" s="0" t="s">
+      <c r="F192" s="12" t="n">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A193" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B194" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="F191" s="12" t="n">
-        <v>6115</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="193" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B193" s="0" t="s">
+      <c r="F194" s="12" t="n">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="196" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B196" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F193" s="12" t="n">
-        <v>6116</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A194" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B195" s="0" t="s">
+      <c r="F196" s="12" t="n">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B198" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F195" s="12" t="n">
-        <v>6130</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="197" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B197" s="0" t="s">
+      <c r="F198" s="12" t="n">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F199" s="12"/>
+    </row>
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="F197" s="12" t="n">
-        <v>6131</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A198" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B199" s="0" t="s">
+    </row>
+    <row r="201" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="F199" s="12" t="n">
-        <v>6145</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F200" s="12"/>
-    </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="F201" s="12" t="n">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B202" s="0" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="202" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="0" t="s">
+      <c r="F202" s="12" t="n">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A203" s="9"/>
+      <c r="B203" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="F202" s="12" t="n">
-        <v>6201</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B203" s="0" t="s">
+      <c r="F203" s="12" t="n">
+        <v>6203</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B204" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F203" s="12" t="n">
-        <v>6202</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A204" s="9"/>
-      <c r="B204" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="F204" s="12" t="n">
-        <v>6203</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B205" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F205" s="12" t="n">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A207" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B208" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F205" s="12" t="n">
-        <v>6204</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B206" s="0" t="s">
+      <c r="F208" s="12" t="n">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F206" s="12" t="n">
-        <v>6205</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A208" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B209" s="0" t="s">
+    </row>
+    <row r="211" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="9"/>
+      <c r="B211" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F209" s="12" t="n">
-        <v>6290</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="F211" s="5" t="n">
+        <v>6301</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="9"/>
+      <c r="B213" s="0" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9"/>
-      <c r="B212" s="0" t="s">
+      <c r="F213" s="5" t="n">
+        <v>6348</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9"/>
+    </row>
+    <row r="215" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A215" s="9"/>
+      <c r="B215" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="F212" s="5" t="n">
-        <v>6301</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="9"/>
-      <c r="B214" s="0" t="s">
+      <c r="F215" s="5" t="n">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A217" s="9"/>
+      <c r="B217" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="F214" s="5" t="n">
-        <v>6348</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="9"/>
-    </row>
-    <row r="216" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A216" s="9"/>
-      <c r="B216" s="0" t="s">
+      <c r="F217" s="5" t="n">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="219" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A219" s="9"/>
+      <c r="B219" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="F216" s="5" t="n">
-        <v>6351</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A217" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A218" s="9"/>
-      <c r="B218" s="0" t="s">
+      <c r="F219" s="5" t="n">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A220" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A221" s="9"/>
+      <c r="B221" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F218" s="5" t="n">
-        <v>6398</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="220" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A220" s="9"/>
-      <c r="B220" s="0" t="s">
+      <c r="F221" s="5" t="n">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="223" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A223" s="9"/>
+      <c r="B223" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="F220" s="5" t="n">
-        <v>6401</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A221" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A222" s="9"/>
-      <c r="B222" s="0" t="s">
+      <c r="F223" s="5" t="n">
+        <v>6451</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A225" s="9"/>
+      <c r="B225" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="F222" s="5" t="n">
-        <v>6448</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="224" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A224" s="9"/>
-      <c r="B224" s="0" t="s">
+      <c r="F225" s="5" t="n">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="227" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A227" s="9"/>
+      <c r="B227" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F224" s="5" t="n">
-        <v>6451</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A225" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A226" s="9"/>
-      <c r="B226" s="0" t="s">
+      <c r="F227" s="5" t="n">
+        <v>6501</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B228" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A229" s="9"/>
+      <c r="B229" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F226" s="5" t="n">
-        <v>6498</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="228" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A228" s="9"/>
-      <c r="B228" s="0" t="s">
+      <c r="F229" s="5" t="n">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="231" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A231" s="9"/>
+      <c r="B231" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="F228" s="5" t="n">
-        <v>6501</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A229" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A230" s="9"/>
-      <c r="B230" s="0" t="s">
+      <c r="F231" s="5" t="n">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A232" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B232" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A233" s="9"/>
+      <c r="B233" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="F230" s="5" t="n">
-        <v>6548</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="232" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A232" s="9"/>
-      <c r="B232" s="0" t="s">
+      <c r="F233" s="5" t="n">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A234" s="9"/>
+    </row>
+    <row r="235" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A235" s="9"/>
+      <c r="B235" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F232" s="5" t="n">
-        <v>6601</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A233" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A234" s="9"/>
-      <c r="B234" s="0" t="s">
+      <c r="F235" s="5" t="n">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A236" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A237" s="9"/>
+      <c r="B237" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="F234" s="5" t="n">
-        <v>6648</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A235" s="9"/>
-    </row>
-    <row r="236" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A236" s="9"/>
-      <c r="B236" s="0" t="s">
+      <c r="F237" s="5" t="n">
+        <v>6698</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="239" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A239" s="9"/>
+      <c r="B239" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="F236" s="5" t="n">
-        <v>6651</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A237" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A238" s="9"/>
-      <c r="B238" s="0" t="s">
+      <c r="F239" s="5" t="n">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A240" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B240" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A241" s="9"/>
+      <c r="B241" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F238" s="5" t="n">
-        <v>6698</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="240" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A240" s="9"/>
-      <c r="B240" s="0" t="s">
+      <c r="F241" s="5" t="n">
+        <v>6748</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="243" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A243" s="9"/>
+      <c r="B243" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F240" s="5" t="n">
-        <v>6701</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A241" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A242" s="9"/>
-      <c r="B242" s="0" t="s">
+      <c r="F243" s="5" t="n">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A244" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B244" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A245" s="9"/>
+      <c r="B245" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F242" s="5" t="n">
-        <v>6748</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="244" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A244" s="9"/>
-      <c r="B244" s="0" t="s">
+      <c r="F245" s="5" t="n">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="247" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A247" s="9"/>
+      <c r="B247" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="F244" s="5" t="n">
-        <v>6751</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A245" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A246" s="9"/>
-      <c r="B246" s="0" t="s">
+      <c r="F247" s="5" t="n">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A248" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B248" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A249" s="9"/>
+      <c r="B249" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F246" s="5" t="n">
-        <v>6798</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="248" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A248" s="9"/>
-      <c r="B248" s="0" t="s">
+      <c r="F249" s="5" t="n">
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="251" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A251" s="9"/>
+      <c r="B251" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="F248" s="5" t="n">
-        <v>6801</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A249" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A250" s="9"/>
-      <c r="B250" s="0" t="s">
+      <c r="F251" s="29" t="n">
+        <v>6851</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A252" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B252" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A253" s="9"/>
+      <c r="B253" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F250" s="5" t="n">
-        <v>6848</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="252" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A252" s="9"/>
-      <c r="B252" s="0" t="s">
+      <c r="F253" s="5" t="n">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="F252" s="29" t="n">
-        <v>6851</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A253" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A254" s="9"/>
-      <c r="B254" s="0" t="s">
+      <c r="F255" s="5"/>
+    </row>
+    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A256" s="9"/>
+      <c r="B256" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F254" s="5" t="n">
-        <v>6898</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="F256" s="5" t="n">
+        <v>6901</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A257" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A258" s="9"/>
+      <c r="B258" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F256" s="5"/>
-    </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A257" s="9"/>
-      <c r="B257" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="F257" s="5" t="n">
-        <v>6901</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A258" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>45</v>
+      <c r="F258" s="5" t="n">
+        <v>6948</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A259" s="9"/>
-      <c r="B259" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F259" s="5" t="n">
-        <v>6948</v>
-      </c>
+      <c r="F259" s="5"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A260" s="9"/>
-      <c r="F260" s="5"/>
+      <c r="B260" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F260" s="5" t="n">
+        <v>6951</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A261" s="9"/>
+      <c r="A261" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B261" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A262" s="9"/>
+      <c r="B262" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F262" s="5" t="n">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="F261" s="5" t="n">
-        <v>6951</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A262" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A263" s="9"/>
-      <c r="B263" s="0" t="s">
+    </row>
+    <row r="266" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="F263" s="5" t="n">
-        <v>6958</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="F266" s="12" t="n">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B267" s="0" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="267" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F267" s="12" t="n">
-        <v>7001</v>
+      <c r="F267" s="5" t="n">
+        <v>7002</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B268" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F268" s="5" t="n">
-        <v>7002</v>
+        <v>191</v>
+      </c>
+      <c r="F268" s="12" t="n">
+        <v>7003</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B269" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F269" s="12" t="n">
-        <v>7003</v>
+        <v>192</v>
+      </c>
+      <c r="F269" s="5" t="n">
+        <v>7004</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B270" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F270" s="12" t="n">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="272" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B272" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F270" s="5" t="n">
-        <v>7004</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B271" s="0" t="s">
+      <c r="F272" s="12" t="n">
+        <v>7006</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="B273" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="F271" s="12" t="n">
-        <v>7005</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="273" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B273" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F273" s="12" t="n">
-        <v>7006</v>
+      <c r="F273" s="5" t="n">
+        <v>7007</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B274" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F274" s="5" t="n">
-        <v>7007</v>
+        <v>196</v>
+      </c>
+      <c r="F274" s="12" t="n">
+        <v>7008</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B275" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F275" s="12" t="n">
-        <v>7008</v>
+        <v>197</v>
+      </c>
+      <c r="F275" s="5" t="n">
+        <v>7009</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="B276" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F276" s="12" t="n">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="279" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A279" s="9"/>
+      <c r="B279" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="F276" s="5" t="n">
-        <v>7009</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="B277" s="0" t="s">
+      <c r="F279" s="5" t="n">
+        <v>7011</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A280" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A281" s="9"/>
+      <c r="B281" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="F277" s="12" t="n">
-        <v>7010</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="280" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A280" s="9"/>
-      <c r="B280" s="0" t="s">
+      <c r="F281" s="5" t="n">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="F280" s="5" t="n">
-        <v>7011</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A281" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A282" s="9"/>
-      <c r="B282" s="0" t="s">
+    </row>
+    <row r="285" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="9"/>
+      <c r="B285" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="F282" s="5" t="n">
-        <v>7030</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="F285" s="5" t="n">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="9"/>
+      <c r="B287" s="0" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="286" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="9"/>
-      <c r="B286" s="0" t="s">
+      <c r="F287" s="5" t="n">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A289" s="9"/>
+      <c r="B289" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="F286" s="5" t="n">
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="9"/>
-      <c r="B288" s="0" t="s">
+      <c r="F289" s="5" t="n">
+        <v>7111</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A290" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A291" s="9"/>
+      <c r="B291" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="F288" s="5" t="n">
-        <v>7108</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A290" s="9"/>
-      <c r="B290" s="0" t="s">
+      <c r="F291" s="5" t="n">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="293" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A293" s="9"/>
+      <c r="B293" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="F290" s="5" t="n">
-        <v>7111</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A291" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A292" s="9"/>
-      <c r="B292" s="0" t="s">
+      <c r="F293" s="5" t="n">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A294" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A295" s="9"/>
+      <c r="B295" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="F292" s="5" t="n">
-        <v>7118</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="294" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A294" s="9"/>
-      <c r="B294" s="0" t="s">
+      <c r="F295" s="5" t="n">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="297" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A297" s="9"/>
+      <c r="B297" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F294" s="5" t="n">
-        <v>7121</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A295" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A296" s="9"/>
-      <c r="B296" s="0" t="s">
+      <c r="F297" s="5" t="n">
+        <v>7131</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A298" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A299" s="9"/>
+      <c r="B299" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="F296" s="5" t="n">
-        <v>7128</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="298" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A298" s="9"/>
-      <c r="B298" s="0" t="s">
+      <c r="F299" s="5" t="n">
+        <v>7138</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="301" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A301" s="9"/>
+      <c r="B301" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="F298" s="5" t="n">
-        <v>7131</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A299" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A300" s="9"/>
-      <c r="B300" s="0" t="s">
+      <c r="F301" s="5" t="n">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A302" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A303" s="9"/>
+      <c r="B303" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="F300" s="5" t="n">
-        <v>7138</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="302" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A302" s="9"/>
-      <c r="B302" s="0" t="s">
+      <c r="F303" s="5" t="n">
+        <v>7148</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
+    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A305" s="9"/>
+      <c r="B305" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F302" s="5" t="n">
-        <v>7141</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A303" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A304" s="9"/>
-      <c r="B304" s="0" t="s">
+      <c r="F305" s="5" t="n">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A306" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A307" s="9"/>
+      <c r="B307" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F304" s="5" t="n">
-        <v>7148</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false"/>
-    <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A306" s="9"/>
-      <c r="B306" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F306" s="5" t="n">
-        <v>7151</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A307" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A308" s="9"/>
-      <c r="B308" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="F308" s="5" t="n">
+      <c r="F307" s="5" t="n">
         <v>7158</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
